--- a/5. Other/C43 lỗi/Thiết bị C43 lỗi nhập tháng 12.xlsx
+++ b/5. Other/C43 lỗi/Thiết bị C43 lỗi nhập tháng 12.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TungNM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\C43 lỗi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF09F744-2CB9-46C4-8437-372189DA1388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF50E4E-A2C4-4A3D-90A9-58613FB06DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Device fault Information" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Device fault Information'!$A$2:$O$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Device fault Information'!$A$2:$N$6</definedName>
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Device fault information record form</t>
   </si>
@@ -407,7 +407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -432,8 +432,26 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -441,67 +459,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -786,11 +783,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.1" customHeight="1"/>
@@ -805,33 +802,31 @@
     <col min="8" max="8" width="19.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="47.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="68.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.25" customWidth="1"/>
-    <col min="14" max="14" width="25.125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="32.75" customWidth="1"/>
+    <col min="11" max="11" width="16.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" customWidth="1"/>
+    <col min="13" max="13" width="25.125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="34.15" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="34.15" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -860,170 +855,163 @@
         <v>8</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="K2" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="L2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="M2" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="N2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A3" s="11">
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="11">
         <v>45700</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="N3" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="27.95" customHeight="1">
-      <c r="A4" s="11">
+    <row r="4" spans="1:14" ht="27.95" customHeight="1">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="15" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="11">
         <v>45700</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="26"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="30"/>
     </row>
-    <row r="5" spans="1:15" ht="27.95" customHeight="1">
-      <c r="A5" s="11">
+    <row r="5" spans="1:14" ht="27.95" customHeight="1">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="15" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="11">
         <v>45700</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="26"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="30"/>
     </row>
-    <row r="6" spans="1:15" ht="27.95" customHeight="1">
-      <c r="A6" s="11">
+    <row r="6" spans="1:14" ht="27.95" customHeight="1">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="15" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="14">
         <v>45728</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="28"/>
       <c r="N6" s="31"/>
-      <c r="O6" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O6" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:N6" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="6">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:N1"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="D3:D6"/>
+    <mergeCell ref="M3:M6"/>
     <mergeCell ref="N3:N6"/>
-    <mergeCell ref="O3:O6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" xr:uid="{58D691EE-4F18-4B81-8A14-6DB8454E9E0B}"/>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{58D691EE-4F18-4B81-8A14-6DB8454E9E0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
